--- a/fuentes/contenidos/grado10/guion10/SolicitudGrafica CN_10_10_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion10/SolicitudGrafica CN_10_10_CO.xlsx
@@ -634,12 +634,6 @@
     <t>000S7401</t>
   </si>
   <si>
-    <t>4°ESO/Física y química/La estructura de la materia/Las partículas subatómicas</t>
-  </si>
-  <si>
-    <t>FQ_10_10_img0_small.jpg</t>
-  </si>
-  <si>
     <t>Ilustración</t>
   </si>
   <si>
@@ -665,9 +659,6 @@
     <t xml:space="preserve">Ilustrar igual a la imagen guía. Por favor incluir colores según maqueta. Lo que se encuentra en color verde deben ser esferas en el centro el signo menos (-). Las flechas que salen de la esferas verdes deben ser del mismo color.  Lo que se encuentra en el centro debe ser una esfera roja.  </t>
   </si>
   <si>
-    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=11&amp;idpil=000S7201&amp;ruta=Buscador</t>
-  </si>
-  <si>
     <t>Código 000S7201</t>
   </si>
   <si>
@@ -714,6 +705,15 @@
   </si>
   <si>
     <t>FQ_10_11_img1_small.jpg</t>
+  </si>
+  <si>
+    <t>Shutterstock 143915434</t>
+  </si>
+  <si>
+    <t>Por favor realizar cambios de textos según imagen guía. Eliminar lo que se encuentra en el cuadro rojo</t>
+  </si>
+  <si>
+    <t>Ilustración. Por favor realizar similar a imagen guía. Utilizar las figuras (formas) naranaja para realizar las rojas. Las esfera realizarla de color verde</t>
   </si>
 </sst>
 </file>
@@ -1667,6 +1667,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1764,12 +1770,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2170,69 +2170,20 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2447925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1823084</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7" descr="http://profesores.aulaplaneta.com/DNNPlayerPackages/Package14355/InfoGuion/cuadernoestudio/images_xml/FQ_10_10_img0_small.jpg">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13896975" y="12315824"/>
-          <a:ext cx="2257425" cy="1727835"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>1842254</xdr:rowOff>
+          <xdr:colOff>97972</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>1360</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>3638550</xdr:colOff>
+          <xdr:colOff>3584122</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>1562100</xdr:rowOff>
+          <xdr:rowOff>1714500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2289,7 +2240,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2324,13 +2275,13 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>58384</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>3667125</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>2068285</xdr:rowOff>
+          <xdr:rowOff>2066925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2373,15 +2324,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>534761</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>258536</xdr:rowOff>
+          <xdr:rowOff>542925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>3400425</xdr:colOff>
+          <xdr:colOff>3754211</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>2021418</xdr:rowOff>
+          <xdr:rowOff>2305050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2389,57 +2340,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2056"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1060101</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>2770716</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>2663824</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2058" name="Object 10" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2058"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2489,7 +2389,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2536,7 +2436,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2580,12 +2480,12 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="16" name="Imagen 15" descr="http://profesores.aulaplaneta.com/DNNPlayerPackages/Package14353/InfoGuion/cuadernoestudio/images_xml/FQ_10_11_img8_small.jpg">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2632,7 +2532,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:srcRect l="25901" t="15692" r="24925" b="18539"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2672,12 +2572,12 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="18" name="Imagen 17" descr="http://profesores.aulaplaneta.com/DNNPlayerPackages/Package14353/InfoGuion/cuadernoestudio/images_xml/FQ_10_11_img3_small.jpg">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2721,12 +2621,12 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="19" name="Imagen 18" descr="http://profesores.aulaplaneta.com/DNNPlayerPackages/Package14353/InfoGuion/cuadernoestudio/images_xml/FQ_10_11_img4_small.jpg">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2773,7 +2673,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2820,7 +2720,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2867,7 +2767,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2914,7 +2814,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2938,6 +2838,92 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3481433</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2742384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:srcRect l="36490" t="29282" r="23795" b="9741"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14083393" y="12273643"/>
+          <a:ext cx="3114040" cy="2687955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1174750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3517900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3121025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagen 25"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:srcRect l="34454" t="5434" r="23795" b="6721"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14859000" y="25082500"/>
+          <a:ext cx="2343150" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3660,9 +3646,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3708,14 +3694,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="F2" s="78" t="s">
+      <c r="D2" s="88"/>
+      <c r="F2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -3739,12 +3725,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="89">
         <v>10</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="D3" s="90"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="83"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -3768,10 +3754,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -3800,10 +3786,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="90"/>
+      <c r="D5" s="92"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -3885,12 +3871,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -4117,7 +4103,7 @@
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="78" t="s">
         <v>195</v>
       </c>
       <c r="C14" s="20" t="str">
@@ -4196,20 +4182,20 @@
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E16" s="63" t="s">
         <v>153</v>
@@ -4232,7 +4218,7 @@
       </c>
       <c r="J16" s="67"/>
       <c r="K16" s="68" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
@@ -4245,14 +4231,14 @@
         <v>IMG08</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>153</v>
@@ -4275,7 +4261,7 @@
       </c>
       <c r="J17"/>
       <c r="K17" s="66" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
@@ -4288,14 +4274,14 @@
         <v>IMG09</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>153</v>
@@ -4318,7 +4304,7 @@
       </c>
       <c r="J18" s="66"/>
       <c r="K18" s="66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
@@ -4331,14 +4317,14 @@
         <v>IMG10</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E19" s="63" t="s">
         <v>153</v>
@@ -4361,27 +4347,27 @@
       </c>
       <c r="J19"/>
       <c r="K19" s="68" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG11</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>153</v>
@@ -4404,27 +4390,27 @@
       </c>
       <c r="J20"/>
       <c r="K20" s="66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="331.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG12</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E21" s="63" t="s">
         <v>153</v>
@@ -4446,8 +4432,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J21"/>
-      <c r="K21" s="110" t="s">
-        <v>209</v>
+      <c r="K21" s="79" t="s">
+        <v>206</v>
       </c>
       <c r="O21" s="2" t="str">
         <f>'Definición técnica de imagenes'!A33</f>
@@ -4460,7 +4446,7 @@
         <v>IMG13</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4490,7 +4476,7 @@
       </c>
       <c r="J22" s="63"/>
       <c r="K22" s="69" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
@@ -4503,7 +4489,7 @@
         <v>IMG14</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4533,7 +4519,7 @@
       </c>
       <c r="J23" s="64"/>
       <c r="K23" s="64" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O23" s="2" t="str">
         <f>'Definición técnica de imagenes'!A35</f>
@@ -4546,7 +4532,7 @@
         <v>IMG15</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4576,7 +4562,7 @@
       </c>
       <c r="J24" s="63"/>
       <c r="K24" s="65" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O24" s="2" t="str">
         <f>'Definición técnica de imagenes'!A37</f>
@@ -4589,14 +4575,14 @@
         <v>IMG16</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C25" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E25" s="63" t="s">
         <v>153</v>
@@ -4619,7 +4605,7 @@
       </c>
       <c r="J25" s="63"/>
       <c r="K25" s="64" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="11" customFormat="1" ht="261" customHeight="1" x14ac:dyDescent="0.25">
@@ -4628,7 +4614,7 @@
         <v>IMG17</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C26" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4658,7 +4644,7 @@
       </c>
       <c r="J26" s="63"/>
       <c r="K26" s="64" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="11" customFormat="1" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4667,7 +4653,7 @@
         <v>IMG18</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C27" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4697,7 +4683,7 @@
       </c>
       <c r="J27" s="64"/>
       <c r="K27" s="64" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O27" s="2"/>
     </row>
@@ -4707,7 +4693,7 @@
         <v>IMG19</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C28" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4737,7 +4723,7 @@
       </c>
       <c r="J28" s="64"/>
       <c r="K28" s="64" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="11" customFormat="1" ht="240" customHeight="1" x14ac:dyDescent="0.25">
@@ -4746,7 +4732,7 @@
         <v>IMG20</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C29" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4782,8 +4768,8 @@
         <f t="shared" si="6"/>
         <v>IMG21</v>
       </c>
-      <c r="B30" s="110" t="s">
-        <v>217</v>
+      <c r="B30" s="79" t="s">
+        <v>214</v>
       </c>
       <c r="C30" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4813,7 +4799,7 @@
       </c>
       <c r="J30" s="64"/>
       <c r="K30" s="64" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="11" customFormat="1" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4822,7 +4808,7 @@
         <v>IMG22</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C31" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4852,7 +4838,7 @@
       </c>
       <c r="J31" s="64"/>
       <c r="K31" s="64" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -7297,15 +7283,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>1838325</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>3638550</xdr:colOff>
+                <xdr:colOff>3581400</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>1562100</xdr:rowOff>
+                <xdr:rowOff>1714500</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7347,15 +7333,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
+                <xdr:colOff>533400</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
+                <xdr:rowOff>542925</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>3400425</xdr:colOff>
+                <xdr:colOff>3752850</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>2019300</xdr:rowOff>
+                <xdr:rowOff>2305050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7363,31 +7349,6 @@
       </mc:Choice>
       <mc:Fallback>
         <oleObject progId="PBrush" shapeId="2056" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2058" r:id="rId10">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1057275</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>2771775</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>2667000</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2058" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -7415,25 +7376,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -7441,11 +7402,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -7496,11 +7457,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="105" t="str">
+      <c r="D5" s="107" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -7545,12 +7506,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="91" t="str">
+      <c r="D7" s="93" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -7644,14 +7605,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -7684,12 +7645,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="100"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -7729,12 +7690,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="99" t="str">
+      <c r="D17" s="101" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -7750,12 +7711,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="91" t="str">
+      <c r="D18" s="93" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="94"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -8146,40 +8107,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="107"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
